--- a/config_10.26/act_ty_phb_config.xlsx
+++ b/config_10.26/act_ty_phb_config.xlsx
@@ -322,10 +322,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>act_031_dlphb</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ymshf_017_hldr_rank</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -377,6 +373,10 @@
   </si>
   <si>
     <t>南瓜达到6万</t>
+  </si>
+  <si>
+    <t>act_032_dlphb</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -964,7 +964,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="18">
         <v>1635206400</v>
@@ -982,10 +982,10 @@
         <v>18</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="1">
         <v>100</v>
@@ -994,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
@@ -1011,10 +1011,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -1023,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="18">
         <v>1635206400</v>
@@ -1032,7 +1032,7 @@
         <v>1635782399</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>17</v>
@@ -1041,10 +1041,10 @@
         <v>18</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1">
         <v>100</v>
@@ -1053,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1239,7 +1239,7 @@
         <v>2000000</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1262,7 +1262,7 @@
         <v>1200000</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1285,7 +1285,7 @@
         <v>600000</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>300000</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1331,7 +1331,7 @@
         <v>200000</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1354,7 +1354,7 @@
         <v>120000</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1377,7 +1377,7 @@
         <v>60000</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
